--- a/analysis/mails_01/P06_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P06_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,15 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
+    <t xml:space="preserve">01/01/2017 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6259</t>
+  </si>
+  <si>
     <t xml:space="preserve">polluted_soil</t>
   </si>
   <si>
@@ -114,6 +123,15 @@
     <t xml:space="preserve">MFD12016</t>
   </si>
   <si>
+    <t xml:space="preserve">01/12/2020 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1634</t>
+  </si>
+  <si>
     <t xml:space="preserve">viby</t>
   </si>
   <si>
@@ -216,6 +234,9 @@
     <t xml:space="preserve">MFD12049</t>
   </si>
   <si>
+    <t xml:space="preserve">01/07/2020 00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12050</t>
   </si>
   <si>
@@ -249,12 +270,21 @@
     <t xml:space="preserve">MFD12061</t>
   </si>
   <si>
+    <t xml:space="preserve">01/12/2021 00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12062</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12063</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642</t>
+  </si>
+  <si>
     <t xml:space="preserve">blommenslyst</t>
   </si>
   <si>
@@ -295,6 +325,15 @@
   </si>
   <si>
     <t xml:space="preserve">MFD12083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2021 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6777</t>
   </si>
   <si>
     <t xml:space="preserve">ebeltoft</t>
@@ -815,3261 +854,3441 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.6259</v>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.6259</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.6259</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.6259</v>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.6259</v>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.6259</v>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.6259</v>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.6259</v>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>57.1241</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.6259</v>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.1634</v>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.1634</v>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.1634</v>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10.1634</v>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.1634</v>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.1634</v>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10.1634</v>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.1634</v>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.1634</v>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.1634</v>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.1634</v>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.1634</v>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.1634</v>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.1634</v>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10.1634</v>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10.1634</v>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10.1634</v>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.1634</v>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10.1634</v>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10.1634</v>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10.1634</v>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10.1634</v>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10.1634</v>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.1634</v>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10.1634</v>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10.1634</v>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10.1634</v>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10.1634</v>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10.1634</v>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E40" t="n">
-        <v>10.1634</v>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10.1634</v>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10.1634</v>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10.1634</v>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10.1634</v>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E45" t="n">
-        <v>10.1634</v>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E46" t="n">
-        <v>10.1634</v>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E47" t="n">
-        <v>10.1634</v>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E48" t="n">
-        <v>10.1634</v>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10.1634</v>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10.1634</v>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10.1634</v>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10.1634</v>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10.1634</v>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E54" t="n">
-        <v>10.1634</v>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E55" t="n">
-        <v>10.1634</v>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10.1634</v>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="n">
-        <v>55.3914</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.2642</v>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E58" t="n">
-        <v>10.1634</v>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10.1634</v>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10.1634</v>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E61" t="n">
-        <v>10.1634</v>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
         <v>85</v>
       </c>
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E62" t="n">
-        <v>10.1634</v>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E63" t="n">
-        <v>10.1634</v>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E64" t="n">
-        <v>10.1634</v>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E65" t="n">
-        <v>10.1634</v>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E66" t="n">
-        <v>10.1634</v>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="n">
-        <v>55.3914</v>
-      </c>
-      <c r="E67" t="n">
-        <v>10.2642</v>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" t="s">
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10.1634</v>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="n">
-        <v>56.1287</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10.1634</v>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10.6777</v>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10.6777</v>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10.6777</v>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10.6777</v>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" t="s">
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10.6777</v>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E75" t="n">
-        <v>10.6777</v>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10.6777</v>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10.6777</v>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10.6777</v>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E79" t="n">
-        <v>10.6777</v>
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
         <v>104</v>
       </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10.6777</v>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" t="s">
         <v>105</v>
       </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10.6777</v>
+      <c r="E81" t="s">
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
         <v>106</v>
       </c>
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10.6777</v>
-      </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10.6777</v>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10.6777</v>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" t="s">
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E85" t="n">
-        <v>10.6777</v>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M85" s="3"/>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E86" t="n">
-        <v>10.6777</v>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E87" t="n">
-        <v>10.6777</v>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" t="s">
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E88" t="n">
-        <v>10.6777</v>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10.6777</v>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10.6777</v>
+      <c r="C90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="n">
-        <v>56.1961</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10.6777</v>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4088,10 +4307,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -4099,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -4107,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -4115,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -4123,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -4131,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -4139,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
@@ -4147,7 +4366,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -4155,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -4163,7 +4382,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
@@ -4171,7 +4390,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -4179,7 +4398,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -4187,7 +4406,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -4195,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -4203,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P06_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P06_3/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">01/01/2017 00:00</t>
+    <t xml:space="preserve">2017-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">57.1241</t>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">MFD12016</t>
   </si>
   <si>
-    <t xml:space="preserve">01/12/2020 00:00</t>
+    <t xml:space="preserve">2020-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">56.1287</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">MFD12049</t>
   </si>
   <si>
-    <t xml:space="preserve">01/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12050</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">MFD12061</t>
   </si>
   <si>
-    <t xml:space="preserve">01/12/2021 00:00</t>
+    <t xml:space="preserve">2021-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12062</t>
@@ -327,7 +327,7 @@
     <t xml:space="preserve">MFD12083</t>
   </si>
   <si>
-    <t xml:space="preserve">01/07/2021 00:00</t>
+    <t xml:space="preserve">2021-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">56.1961</t>

--- a/analysis/mails_01/P06_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P06_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,12 +57,135 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD12061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polluted_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean - Polluted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blommenslyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebeltoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12100</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12000</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-01-01</t>
   </si>
   <si>
@@ -72,28 +195,13 @@
     <t xml:space="preserve">9.6259</t>
   </si>
   <si>
-    <t xml:space="preserve">polluted_soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6100</t>
+    <t xml:space="preserve">6130</t>
   </si>
   <si>
     <t xml:space="preserve">aretsminde</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subterranean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential pollution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subterranean - Polluted</t>
+    <t xml:space="preserve">Pollution</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12001</t>
@@ -108,6 +216,12 @@
     <t xml:space="preserve">MFD12004</t>
   </si>
   <si>
+    <t xml:space="preserve">6190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below detection limit</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12005</t>
   </si>
   <si>
@@ -126,15 +240,6 @@
     <t xml:space="preserve">2020-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viby</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12017</t>
   </si>
   <si>
@@ -189,6 +294,12 @@
     <t xml:space="preserve">MFD12034</t>
   </si>
   <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pollution</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12035</t>
   </si>
   <si>
@@ -267,81 +378,6 @@
     <t xml:space="preserve">MFD12059</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blommenslyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebeltoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12084</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12085</t>
   </si>
   <si>
@@ -354,9 +390,6 @@
     <t xml:space="preserve">MFD12088</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12089</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12090</t>
   </si>
   <si>
@@ -369,25 +402,10 @@
     <t xml:space="preserve">MFD12093</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12094</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12095</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12097</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12100</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12101</t>
@@ -475,17 +493,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -505,11 +518,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +896,7 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
         <v>26</v>
       </c>
@@ -926,7 +938,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
         <v>26</v>
       </c>
@@ -942,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -954,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -968,14 +980,14 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1010,14 +1022,14 @@
       <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1034,7 +1046,9 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
@@ -1044,16 +1058,20 @@
       <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1070,7 +1088,9 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
@@ -1080,16 +1100,20 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1124,14 +1148,14 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1148,7 +1172,9 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
@@ -1158,16 +1184,20 @@
       <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1184,7 +1214,9 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
@@ -1194,35 +1226,41 @@
       <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1230,28 +1268,32 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1260,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1274,26 +1316,26 @@
       <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -1302,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -1316,26 +1358,26 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1344,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -1358,26 +1400,26 @@
       <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1386,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -1400,26 +1442,26 @@
       <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1428,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1442,26 +1484,26 @@
       <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1470,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -1484,26 +1526,26 @@
       <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1512,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -1526,26 +1568,26 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1554,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -1568,69 +1610,77 @@
       <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -1638,28 +1688,32 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1668,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -1682,26 +1736,26 @@
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1710,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -1724,26 +1778,26 @@
       <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1752,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -1766,35 +1820,35 @@
       <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -1808,35 +1862,37 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
       <c r="N25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -1850,35 +1906,37 @@
       <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
       <c r="N26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -1892,35 +1950,37 @@
       <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -1934,33 +1994,37 @@
       <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" t="s">
+        <v>62</v>
+      </c>
       <c r="N28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1968,35 +2032,43 @@
       <c r="J29" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>68</v>
+      </c>
       <c r="N29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2004,35 +2076,43 @@
       <c r="J30" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
       <c r="N30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -2040,35 +2120,43 @@
       <c r="J31" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
       <c r="N31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -2076,71 +2164,87 @@
       <c r="J32" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
       <c r="N32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" t="s">
-        <v>39</v>
-      </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
       <c r="N33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -2148,35 +2252,43 @@
       <c r="J34" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
       <c r="N34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -2184,35 +2296,43 @@
       <c r="J35" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>62</v>
+      </c>
       <c r="N35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -2220,37 +2340,43 @@
       <c r="J36" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>62</v>
+      </c>
       <c r="N36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -2264,33 +2390,37 @@
       <c r="L37" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" t="s">
+        <v>62</v>
+      </c>
       <c r="N37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -2298,35 +2428,43 @@
       <c r="J38" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>62</v>
+      </c>
       <c r="N38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -2334,35 +2472,43 @@
       <c r="J39" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="s">
+        <v>62</v>
+      </c>
       <c r="N39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -2370,35 +2516,43 @@
       <c r="J40" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="s">
+        <v>62</v>
+      </c>
       <c r="N40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -2406,35 +2560,43 @@
       <c r="J41" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>62</v>
+      </c>
       <c r="N41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2442,35 +2604,43 @@
       <c r="J42" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>62</v>
+      </c>
       <c r="N42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2478,37 +2648,43 @@
       <c r="J43" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
+        <v>68</v>
+      </c>
       <c r="N43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2522,35 +2698,37 @@
       <c r="L44" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" t="s">
+        <v>68</v>
+      </c>
       <c r="N44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2564,33 +2742,37 @@
       <c r="L45" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" t="s">
+        <v>62</v>
+      </c>
       <c r="N45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2598,35 +2780,43 @@
       <c r="J46" t="s">
         <v>23</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
+        <v>62</v>
+      </c>
       <c r="N46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
       <c r="H47" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2634,37 +2824,43 @@
       <c r="J47" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="s">
+        <v>62</v>
+      </c>
       <c r="N47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2678,33 +2874,37 @@
       <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" t="s">
+        <v>62</v>
+      </c>
       <c r="N48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -2712,35 +2912,43 @@
       <c r="J49" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>62</v>
+      </c>
       <c r="N49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -2748,37 +2956,43 @@
       <c r="J50" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>62</v>
+      </c>
       <c r="N50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -2792,35 +3006,37 @@
       <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" t="s">
+        <v>62</v>
+      </c>
       <c r="N51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -2832,35 +3048,39 @@
         <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="M52" t="s">
+        <v>94</v>
+      </c>
       <c r="N52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
       <c r="H53" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -2868,35 +3088,43 @@
       <c r="J53" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>94</v>
+      </c>
+      <c r="M53" t="s">
+        <v>94</v>
+      </c>
       <c r="N53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
       <c r="H54" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -2904,35 +3132,43 @@
       <c r="J54" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>94</v>
+      </c>
+      <c r="M54" t="s">
+        <v>94</v>
+      </c>
       <c r="N54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
       <c r="H55" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -2940,35 +3176,43 @@
       <c r="J55" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" t="s">
+        <v>94</v>
+      </c>
       <c r="N55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -2976,35 +3220,43 @@
       <c r="J56" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M56" t="s">
+        <v>94</v>
+      </c>
       <c r="N56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -3012,35 +3264,43 @@
       <c r="J57" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" t="s">
+        <v>94</v>
+      </c>
       <c r="N57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -3048,35 +3308,43 @@
       <c r="J58" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" t="s">
+        <v>94</v>
+      </c>
       <c r="N58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
       <c r="H59" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3084,35 +3352,43 @@
       <c r="J59" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" t="s">
+        <v>94</v>
+      </c>
       <c r="N59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3120,71 +3396,87 @@
       <c r="J60" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="s">
+        <v>62</v>
+      </c>
       <c r="N60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
         <v>94</v>
       </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="M61" t="s">
+        <v>94</v>
+      </c>
       <c r="N61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" t="s">
+        <v>93</v>
+      </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -3192,35 +3484,43 @@
       <c r="J62" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" t="s">
+        <v>94</v>
+      </c>
+      <c r="M62" t="s">
+        <v>94</v>
+      </c>
       <c r="N62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
       <c r="H63" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3228,35 +3528,43 @@
       <c r="J63" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>94</v>
+      </c>
+      <c r="M63" t="s">
+        <v>94</v>
+      </c>
       <c r="N63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" t="s">
+        <v>93</v>
+      </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -3264,35 +3572,43 @@
       <c r="J64" t="s">
         <v>23</v>
       </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="K64" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" t="s">
+        <v>94</v>
+      </c>
+      <c r="M64" t="s">
+        <v>94</v>
+      </c>
       <c r="N64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
       <c r="H65" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -3300,35 +3616,43 @@
       <c r="J65" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" t="s">
+        <v>94</v>
+      </c>
       <c r="N65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -3336,35 +3660,43 @@
       <c r="J66" t="s">
         <v>23</v>
       </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>94</v>
+      </c>
+      <c r="M66" t="s">
+        <v>94</v>
+      </c>
       <c r="N66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" t="s">
+        <v>60</v>
+      </c>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -3372,35 +3704,43 @@
       <c r="J67" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="K67" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>62</v>
+      </c>
       <c r="N67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
@@ -3408,35 +3748,43 @@
       <c r="J68" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="s">
+        <v>62</v>
+      </c>
       <c r="N68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
@@ -3444,35 +3792,43 @@
       <c r="J69" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" t="s">
+        <v>68</v>
+      </c>
       <c r="N69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" t="s">
+        <v>67</v>
+      </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
@@ -3480,35 +3836,43 @@
       <c r="J70" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="s">
+        <v>68</v>
+      </c>
       <c r="N70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" t="s">
+        <v>60</v>
+      </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
@@ -3516,37 +3880,43 @@
       <c r="J71" t="s">
         <v>23</v>
       </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="s">
+        <v>62</v>
+      </c>
       <c r="N71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -3560,35 +3930,37 @@
       <c r="L72" t="s">
         <v>25</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" t="s">
+        <v>68</v>
+      </c>
       <c r="N72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
         <v>110</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -3602,35 +3974,37 @@
       <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" t="s">
+        <v>68</v>
+      </c>
       <c r="N73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -3644,35 +4018,37 @@
       <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" t="s">
+        <v>62</v>
+      </c>
       <c r="N74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -3686,33 +4062,37 @@
       <c r="L75" t="s">
         <v>25</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" t="s">
+        <v>62</v>
+      </c>
       <c r="N75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -3720,35 +4100,43 @@
       <c r="J76" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>68</v>
+      </c>
       <c r="N76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -3756,35 +4144,43 @@
       <c r="J77" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>68</v>
+      </c>
       <c r="N77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="G78" t="s">
+        <v>60</v>
+      </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -3792,37 +4188,43 @@
       <c r="J78" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="s">
+        <v>62</v>
+      </c>
       <c r="N78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -3836,35 +4238,37 @@
       <c r="L79" t="s">
         <v>25</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" t="s">
+        <v>62</v>
+      </c>
       <c r="N79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -3878,33 +4282,37 @@
       <c r="L80" t="s">
         <v>25</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" t="s">
+        <v>62</v>
+      </c>
       <c r="N80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" t="s">
+        <v>60</v>
+      </c>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -3912,37 +4320,43 @@
       <c r="J81" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
+        <v>62</v>
+      </c>
       <c r="N81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -3954,35 +4368,39 @@
         <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="M82" t="s">
+        <v>94</v>
+      </c>
       <c r="N82" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" t="s">
+        <v>93</v>
+      </c>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -3990,35 +4408,43 @@
       <c r="J83" t="s">
         <v>23</v>
       </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+      <c r="K83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
+        <v>94</v>
+      </c>
+      <c r="M83" t="s">
+        <v>94</v>
+      </c>
       <c r="N83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="G84" t="s">
+        <v>60</v>
+      </c>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4026,37 +4452,43 @@
       <c r="J84" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="s">
+        <v>62</v>
+      </c>
       <c r="N84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -4070,33 +4502,37 @@
       <c r="L85" t="s">
         <v>25</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" t="s">
+        <v>62</v>
+      </c>
       <c r="N85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" t="s">
+        <v>60</v>
+      </c>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4104,35 +4540,43 @@
       <c r="J86" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="s">
+        <v>62</v>
+      </c>
       <c r="N86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="G87" t="s">
+        <v>60</v>
+      </c>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4140,35 +4584,43 @@
       <c r="J87" t="s">
         <v>23</v>
       </c>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+      <c r="K87" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>62</v>
+      </c>
       <c r="N87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -4176,35 +4628,43 @@
       <c r="J88" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+      <c r="K88" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" t="s">
+        <v>94</v>
+      </c>
       <c r="N88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="G89" t="s">
+        <v>93</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4212,35 +4672,43 @@
       <c r="J89" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
+      <c r="K89" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" t="s">
+        <v>94</v>
+      </c>
+      <c r="M89" t="s">
+        <v>94</v>
+      </c>
       <c r="N89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" t="s">
+        <v>93</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4248,35 +4716,43 @@
       <c r="J90" t="s">
         <v>23</v>
       </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
+      <c r="K90" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" t="s">
+        <v>94</v>
+      </c>
       <c r="N90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" t="s">
+        <v>93</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -4284,9 +4760,15 @@
       <c r="J91" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
+        <v>94</v>
+      </c>
+      <c r="M91" t="s">
+        <v>94</v>
+      </c>
       <c r="N91" t="s">
         <v>26</v>
       </c>
@@ -4307,10 +4789,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -4318,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -4326,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -4334,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -4342,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -4350,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -4358,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -4366,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -4374,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -4382,7 +4864,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -4390,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -4398,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -4406,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -4414,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -4422,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P06_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P06_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,45 +57,93 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD12034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polluted_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean - Polluted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12048</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12061</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">56.1287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polluted_soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">6100</t>
   </si>
   <si>
-    <t xml:space="preserve">viby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subterranean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potential pollution</t>
   </si>
   <si>
-    <t xml:space="preserve">Subterranean - Polluted</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12062</t>
   </si>
   <si>
@@ -168,6 +216,12 @@
     <t xml:space="preserve">MFD12089</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD12090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12091</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12094</t>
   </si>
   <si>
@@ -183,6 +237,18 @@
     <t xml:space="preserve">MFD12100</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD12101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12104</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12000</t>
   </si>
   <si>
@@ -237,9 +303,6 @@
     <t xml:space="preserve">MFD12016</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-12-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12017</t>
   </si>
   <si>
@@ -291,57 +354,9 @@
     <t xml:space="preserve">MFD12033</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pollution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12041</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12042</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12048</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12049</t>
   </si>
   <si>
@@ -390,12 +405,6 @@
     <t xml:space="preserve">MFD12088</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD12090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12091</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12092</t>
   </si>
   <si>
@@ -406,18 +415,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD12098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12104</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -893,17 +890,15 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -935,17 +930,15 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -954,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -966,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -977,17 +970,15 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1019,17 +1010,15 @@
       <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1061,17 +1050,15 @@
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1103,17 +1090,15 @@
       <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1145,17 +1130,15 @@
       <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1187,17 +1170,15 @@
       <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1229,17 +1210,15 @@
       <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1271,17 +1250,15 @@
       <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1313,17 +1290,15 @@
       <c r="K12" t="s">
         <v>24</v>
       </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1355,17 +1330,15 @@
       <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1374,10 +1347,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1386,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -1397,17 +1370,15 @@
       <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1439,23 +1410,21 @@
       <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1467,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
@@ -1482,37 +1451,37 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -1524,38 +1493,38 @@
         <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
@@ -1566,37 +1535,37 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -1608,37 +1577,37 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -1650,37 +1619,37 @@
         <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -1692,37 +1661,37 @@
         <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -1734,37 +1703,37 @@
         <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -1776,37 +1745,37 @@
         <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -1818,37 +1787,37 @@
         <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -1860,39 +1829,37 @@
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -1904,39 +1871,37 @@
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -1948,39 +1913,37 @@
         <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -1992,39 +1955,37 @@
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -2036,39 +1997,37 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" t="s">
-        <v>68</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2080,39 +2039,37 @@
         <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" t="s">
-        <v>68</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -2124,39 +2081,37 @@
         <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -2168,39 +2123,37 @@
         <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -2212,39 +2165,37 @@
         <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" t="s">
-        <v>68</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -2255,40 +2206,36 @@
       <c r="K34" t="s">
         <v>24</v>
       </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="s">
-        <v>68</v>
-      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -2299,40 +2246,36 @@
       <c r="K35" t="s">
         <v>24</v>
       </c>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" t="s">
-        <v>62</v>
-      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -2344,39 +2287,37 @@
         <v>24</v>
       </c>
       <c r="L36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -2388,39 +2329,37 @@
         <v>24</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -2432,39 +2371,37 @@
         <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -2476,39 +2413,37 @@
         <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -2520,39 +2455,37 @@
         <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" t="s">
-        <v>62</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -2563,40 +2496,36 @@
       <c r="K41" t="s">
         <v>24</v>
       </c>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" t="s">
-        <v>62</v>
-      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2607,40 +2536,36 @@
       <c r="K42" t="s">
         <v>24</v>
       </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="s">
-        <v>62</v>
-      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2651,40 +2576,36 @@
       <c r="K43" t="s">
         <v>24</v>
       </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="s">
-        <v>68</v>
-      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2695,40 +2616,36 @@
       <c r="K44" t="s">
         <v>24</v>
       </c>
-      <c r="L44" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" t="s">
-        <v>68</v>
-      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2740,39 +2657,39 @@
         <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2784,39 +2701,39 @@
         <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2828,39 +2745,39 @@
         <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2872,39 +2789,39 @@
         <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
         <v>89</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -2916,83 +2833,83 @@
         <v>24</v>
       </c>
       <c r="L49" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M49" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" t="s">
-        <v>62</v>
-      </c>
       <c r="N50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -3004,39 +2921,39 @@
         <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -3048,39 +2965,39 @@
         <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -3092,24 +3009,24 @@
         <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -3121,7 +3038,7 @@
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s">
         <v>21</v>
@@ -3136,24 +3053,24 @@
         <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -3165,7 +3082,7 @@
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
@@ -3180,24 +3097,24 @@
         <v>24</v>
       </c>
       <c r="L55" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M55" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -3209,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
         <v>21</v>
@@ -3224,24 +3141,24 @@
         <v>24</v>
       </c>
       <c r="L56" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -3253,7 +3170,7 @@
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
@@ -3268,24 +3185,24 @@
         <v>24</v>
       </c>
       <c r="L57" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -3297,7 +3214,7 @@
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -3312,24 +3229,24 @@
         <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M58" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -3341,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -3356,24 +3273,24 @@
         <v>24</v>
       </c>
       <c r="L59" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M59" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -3385,7 +3302,7 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
         <v>21</v>
@@ -3400,24 +3317,24 @@
         <v>24</v>
       </c>
       <c r="L60" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -3429,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
         <v>21</v>
@@ -3444,24 +3361,24 @@
         <v>24</v>
       </c>
       <c r="L61" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3473,7 +3390,7 @@
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s">
         <v>21</v>
@@ -3488,24 +3405,24 @@
         <v>24</v>
       </c>
       <c r="L62" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M62" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -3517,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
         <v>21</v>
@@ -3532,24 +3449,24 @@
         <v>24</v>
       </c>
       <c r="L63" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -3561,7 +3478,7 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
         <v>21</v>
@@ -3576,24 +3493,24 @@
         <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M64" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -3605,7 +3522,7 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -3620,24 +3537,24 @@
         <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M65" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -3649,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
         <v>21</v>
@@ -3664,24 +3581,24 @@
         <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -3693,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -3708,24 +3625,24 @@
         <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M67" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -3737,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
@@ -3752,24 +3669,24 @@
         <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M68" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -3781,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -3796,24 +3713,24 @@
         <v>24</v>
       </c>
       <c r="L69" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -3825,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -3840,24 +3757,24 @@
         <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -3869,7 +3786,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -3884,24 +3801,24 @@
         <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M71" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -3913,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
@@ -3928,24 +3845,24 @@
         <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -3957,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
         <v>21</v>
@@ -3972,24 +3889,24 @@
         <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M73" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -4001,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s">
         <v>21</v>
@@ -4016,24 +3933,24 @@
         <v>24</v>
       </c>
       <c r="L74" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M74" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -4045,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s">
         <v>21</v>
@@ -4060,24 +3977,24 @@
         <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M75" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="N75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -4089,7 +4006,7 @@
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s">
         <v>21</v>
@@ -4104,24 +4021,24 @@
         <v>24</v>
       </c>
       <c r="L76" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="N76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -4133,7 +4050,7 @@
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -4148,39 +4065,39 @@
         <v>24</v>
       </c>
       <c r="L77" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M77" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -4192,39 +4109,39 @@
         <v>24</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M78" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="N78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -4236,39 +4153,39 @@
         <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="N79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -4280,39 +4197,39 @@
         <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -4324,39 +4241,39 @@
         <v>24</v>
       </c>
       <c r="L81" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M81" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -4368,39 +4285,39 @@
         <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M82" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4412,39 +4329,39 @@
         <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4456,39 +4373,39 @@
         <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M84" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -4500,39 +4417,39 @@
         <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M85" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4544,39 +4461,39 @@
         <v>24</v>
       </c>
       <c r="L86" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4588,39 +4505,39 @@
         <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M87" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -4632,39 +4549,39 @@
         <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M88" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4676,39 +4593,39 @@
         <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4720,39 +4637,39 @@
         <v>24</v>
       </c>
       <c r="L90" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M90" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -4764,13 +4681,13 @@
         <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M91" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4789,10 +4706,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -4800,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -4808,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -4816,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -4824,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -4832,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -4840,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -4848,7 +4765,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -4856,7 +4773,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -4864,7 +4781,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -4872,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -4880,7 +4797,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -4888,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -4896,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -4904,7 +4821,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
